--- a/SIMD/計測値.xlsx
+++ b/SIMD/計測値.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kadoshima/Documents/MobileNLD-FL/SIMD/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3F8C5E6-89A9-9E43-8DD0-DB5C0921001E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39AAE4AB-94E1-6E45-94F7-3E0EBD2F9538}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3840" yWindow="2720" windowWidth="28300" windowHeight="17360" xr2:uid="{A9D7A133-9AAF-CA46-B246-F12EFCEA140D}"/>
   </bookViews>
@@ -470,7 +470,7 @@
   <dimension ref="B2:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
